--- a/documents/general/Product Backlog.xlsx
+++ b/documents/general/Product Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Description</t>
   </si>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>Rating system should be based on notification from user and volunteer and garbage contend. Notification will be sent to users and volunteers and points will be credited. This will be generate ratings for the volunteer.</t>
+  </si>
+  <si>
+    <t>Apartment as a Unit</t>
+  </si>
+  <si>
+    <t>This is to measure the perfromance of Collectors and award them accordingly.</t>
+  </si>
+  <si>
+    <t>This is to measure the performance of Recyclers and award them accordingly.</t>
+  </si>
+  <si>
+    <t>This is to consider an Apartment as a Unit of deployement of our Product. This way they can monitor the Garbage bags and generate reports out of it.</t>
   </si>
 </sst>
 </file>
@@ -121,8 +133,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D4" totalsRowShown="0">
-  <autoFilter ref="A1:D4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D5" totalsRowShown="0">
+  <autoFilter ref="A1:D5"/>
   <tableColumns count="4">
     <tableColumn id="1" name="S.No" dataDxfId="3"/>
     <tableColumn id="2" name="Module" dataDxfId="2"/>
@@ -420,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,26 +460,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" s="4">
         <v>1</v>
       </c>
@@ -483,6 +499,20 @@
         <v>7</v>
       </c>
       <c r="D4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4">
         <v>1</v>
       </c>
     </row>
